--- a/data/income_statement/2digits/size/41_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/41_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>41-Construction of buildings</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>41-Construction of buildings</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>12985029.68911</v>
+        <v>13602350.36187</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>13608434.6246</v>
+        <v>14437734.91918</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>15726358.16873</v>
+        <v>16544347.95237</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>20092789.25069</v>
+        <v>21271732.57543</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>24316936.10131</v>
+        <v>25692598.06365</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>30076939.94008</v>
+        <v>32023018.17788</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>36015842.82487001</v>
+        <v>39553227.72253</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>46021675.62175</v>
+        <v>47705362.28506</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>58064327.60024</v>
+        <v>60973605.05925</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>67207642.33262999</v>
+        <v>70104016.46091001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>61308556.28211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>66477125.46554</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>63041555.841</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>12226554.93097</v>
+        <v>12759898.5704</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>12981752.659</v>
+        <v>13719343.49671</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>14990134.86202</v>
+        <v>15694215.62091</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>19092276.16968</v>
+        <v>20191864.60922</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>22189063.74738</v>
+        <v>23432758.6624</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>28391193.11015</v>
+        <v>30008733.74834</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>34015834.47069</v>
+        <v>37299522.96472</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>43556942.69318</v>
+        <v>45036163.64324</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>52938940.72172</v>
+        <v>55461551.32094</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>63617057.95680001</v>
+        <v>66172714.02348001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>55934916.95147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>60566306.86717</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>59439316.985</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>483750.26739</v>
+        <v>547445.93699</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>421786.70283</v>
+        <v>469137.98104</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>449510.35923</v>
+        <v>569399.9358</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>688699.52601</v>
+        <v>754001.3493499999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1774101.05065</v>
+        <v>1897435.1925</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1255272.68606</v>
+        <v>1474704.75156</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1480035.28733</v>
+        <v>1598811.1646</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1615865.24415</v>
+        <v>1746061.23746</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3917791.04485</v>
+        <v>4172949.85033</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2253387.03793</v>
+        <v>2482834.70484</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2981791.55571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3479848.32465</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2406154.446</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>274724.49075</v>
+        <v>295005.85448</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>204895.26277</v>
+        <v>249253.44143</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>286712.94748</v>
+        <v>280732.39566</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>311813.555</v>
+        <v>325866.61686</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>353771.3032800001</v>
+        <v>362404.20875</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>430474.14387</v>
+        <v>539579.67798</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>519973.0668499999</v>
+        <v>654893.59321</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>848867.6844200001</v>
+        <v>923137.40436</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1207595.83367</v>
+        <v>1339103.88798</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1337197.3379</v>
+        <v>1448467.73259</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2391847.77493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2430970.27372</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1196084.41</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>46606.7789</v>
+        <v>43556.86025</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>30601.05538</v>
+        <v>32154.59208</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>49737.40096</v>
+        <v>48784.64986999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>64826.95282999999</v>
+        <v>60249.17262999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>109873.51426</v>
+        <v>58710.46296</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>89298.11278</v>
+        <v>107614.55843</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1266428.70359</v>
+        <v>119380.39624</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>267500.21231</v>
+        <v>223639.93433</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>309510.55029</v>
+        <v>355993.23781</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>426290.58414</v>
+        <v>515741.73827</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>411902.65357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>385309.2360200001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>754171.5870000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>31155.28699</v>
+        <v>36118.92843</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>23588.35907</v>
+        <v>22642.69083</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>33862.45478</v>
+        <v>33778.96851</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>45537.73817</v>
+        <v>45369.96367</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>105820.99565</v>
+        <v>51501.30751999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>70720.59183</v>
+        <v>81314.77427999998</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1250210.09991</v>
+        <v>92141.09110999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>229019.24709</v>
+        <v>186995.61451</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>258330.59223</v>
+        <v>301807.11923</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>336526.77051</v>
+        <v>392706.62535</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>359894.26711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>310384.74281</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>676194.523</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>14867.84177</v>
+        <v>5333.9344</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5594.47212</v>
+        <v>8014.36937</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>9326.211809999999</v>
+        <v>10817.07337</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>10515.1369</v>
+        <v>12492.59994</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2355.82365</v>
+        <v>5592.40272</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8775.840179999999</v>
+        <v>16395.97598</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>5387.249110000001</v>
+        <v>8638.349649999998</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>13480.20652</v>
+        <v>21105.99484</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>28163.56126</v>
+        <v>31177.39642</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>40437.77817000001</v>
+        <v>71384.40173</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>31203.03225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>45333.42722999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>62253.651</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>583.65014</v>
+        <v>2103.99742</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1418.22419</v>
+        <v>1497.53188</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>6548.73437</v>
+        <v>4188.60799</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>8774.07776</v>
+        <v>2386.60902</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1696.69496</v>
+        <v>1616.75272</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>9801.680769999999</v>
+        <v>9903.80817</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10831.35457</v>
+        <v>18600.95548</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>25000.7587</v>
+        <v>15538.32498</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>23016.3968</v>
+        <v>23008.72216</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>49326.03546</v>
+        <v>51650.71118999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>20805.35421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>29591.06598</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>15723.413</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>12938422.91021</v>
+        <v>13558793.50162</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>13577833.56922</v>
+        <v>14405580.3271</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>15676620.76777</v>
+        <v>16495563.3025</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>20027962.29786</v>
+        <v>21211483.4028</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>24207062.58705</v>
+        <v>25633887.60069</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>29987641.8273</v>
+        <v>31915403.61945</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>34749414.12128</v>
+        <v>39433847.32629</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>45754175.40944</v>
+        <v>47481722.35072999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>57754817.04995</v>
+        <v>60617611.82144</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>66781351.74849</v>
+        <v>69588274.72263999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>60896653.62853999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>66091816.22952001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>62287384.254</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>11556593.81179</v>
+        <v>12112337.44343</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>12034671.90949</v>
+        <v>12782748.42068</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>13848120.73545</v>
+        <v>14498778.38964</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>17743431.64576</v>
+        <v>18702611.37179</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>21813085.89858</v>
+        <v>23103779.70347</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>26943005.76285</v>
+        <v>28528934.06613</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>30800934.11838</v>
+        <v>34946152.56165</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>41159070.54541001</v>
+        <v>42494014.73305</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>51887443.62427001</v>
+        <v>54221859.04996001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>60579307.43059</v>
+        <v>62607291.57221</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>53193024.48682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>57045754.56322</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>54251918.471</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2417730.92624</v>
+        <v>2445353.80712</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2843813.83141</v>
+        <v>2850363.19679</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3528648.21944</v>
+        <v>3533489.29991</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4626567.8836</v>
+        <v>4879391.65939</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6564196.41017</v>
+        <v>6582486.94004</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8065522.033100001</v>
+        <v>8302963.63826</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9908747.9538</v>
+        <v>10442554.23911</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>13838885.2619</v>
+        <v>13776240.72188</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>16856868.94952</v>
+        <v>17015734.86216</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>21105885.36364</v>
+        <v>21195308.4637</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>17517936.22109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17697621.01891</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>16318710.716</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1976917.42633</v>
+        <v>1993342.57137</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2127735.71227</v>
+        <v>2153296.92827</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2847807.94802</v>
+        <v>2932212.609060001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3821556.44095</v>
+        <v>3777320.24976</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4442234.806190001</v>
+        <v>4544753.737579999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>4614333.04567</v>
+        <v>4697262.549640001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5705310.546719999</v>
+        <v>5891052.03379</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>8140611.00419</v>
+        <v>8206275.64871</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>10885683.81958</v>
+        <v>10961977.33107</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9696151.092600001</v>
+        <v>9687537.22137</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>8946386.906869998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>9564753.081669999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>11030334.871</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7101126.237690001</v>
+        <v>7598429.17529</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>6980921.14308</v>
+        <v>7658216.23776</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>7351051.12951</v>
+        <v>7891578.54978</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>9175980.066330001</v>
+        <v>9928467.393449999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>10697862.49406</v>
+        <v>11854956.94919</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>14055048.19173</v>
+        <v>15343959.36132</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>14900747.95637</v>
+        <v>18310858.24556</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>18823861.03869</v>
+        <v>20166492.78498</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>23741700.25247</v>
+        <v>25848515.81813</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>29211704.2915</v>
+        <v>31103226.97292</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>26230303.1085</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>29217818.98469</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>25874794.458</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>60819.22153</v>
+        <v>75211.88965000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>82201.22273000001</v>
+        <v>120872.05786</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>120613.43848</v>
+        <v>141497.93089</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>119327.25488</v>
+        <v>117432.06919</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>108792.18816</v>
+        <v>121582.07666</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>208102.49235</v>
+        <v>184748.51691</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>286127.66149</v>
+        <v>301688.04319</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>355713.24063</v>
+        <v>345005.57748</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>403190.6027</v>
+        <v>395631.0386</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>565566.68285</v>
+        <v>621218.9142199999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>498398.25036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>565561.47795</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1028078.426</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1381829.09842</v>
+        <v>1446456.05819</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1543161.65973</v>
+        <v>1622831.90642</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1828500.03232</v>
+        <v>1996784.91286</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2284530.6521</v>
+        <v>2508872.03101</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2393976.68847</v>
+        <v>2530107.89722</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3044636.06445</v>
+        <v>3386469.553319999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3948480.0029</v>
+        <v>4487694.764640001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4595104.86403</v>
+        <v>4987707.617679999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>5867373.42568</v>
+        <v>6395752.77148</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6202044.317899999</v>
+        <v>6980983.150429999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7703629.141720001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9046061.666300001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8035465.783</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>701143.3661</v>
+        <v>609440.49814</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>815671.4832700001</v>
+        <v>731821.94236</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>992793.8905500001</v>
+        <v>996417.8192600001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1235867.23796</v>
+        <v>1155313.77043</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1276763.12828</v>
+        <v>1169858.66074</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1598840.04125</v>
+        <v>1656325.0165</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1919664.80199</v>
+        <v>2069788.65889</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2406326.77819</v>
+        <v>2366154.68104</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2967133.32439</v>
+        <v>2916158.950600001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3253956.16791</v>
+        <v>3404182.28967</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3323599.85647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3684673.75926</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3756513.945</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1321.57432</v>
+        <v>910.56223</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>23073.06416</v>
+        <v>20054.65173</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>872.90246</v>
+        <v>592.68993</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3340.22602</v>
+        <v>1546.65712</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2689.10196</v>
+        <v>5356.753940000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8020.23046</v>
+        <v>7525.19042</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3578.96433</v>
+        <v>1608.66391</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>12169.04191</v>
+        <v>11611.82618</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>5266.20414</v>
+        <v>8440.825540000002</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>12862.51697</v>
+        <v>10394.17289</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11138.11281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6649.73805</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4679.773</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>71621.48492999999</v>
+        <v>83392.27981000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>92925.38308</v>
+        <v>116911.87924</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>124446.92437</v>
+        <v>159036.53895</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>121823.38038</v>
+        <v>170613.6543</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>118992.24379</v>
+        <v>134722.53796</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>162498.9552</v>
+        <v>240934.83868</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>191542.6445</v>
+        <v>289527.4168</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>239677.83156</v>
+        <v>325074.97282</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>332723.91063</v>
+        <v>443188.16226</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>410579.80161</v>
+        <v>559996.1348100001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>421261.57824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>535293.3697</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>658265.517</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>628200.3068500001</v>
+        <v>525137.6561</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>699673.03603</v>
+        <v>594855.41139</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>867474.06372</v>
+        <v>836788.59038</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1110703.63156</v>
+        <v>983153.45901</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1155081.78253</v>
+        <v>1029779.36884</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1428320.85559</v>
+        <v>1407864.9874</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1724543.19316</v>
+        <v>1778652.57818</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2154479.90472</v>
+        <v>2029467.88204</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2629143.20962</v>
+        <v>2464529.9628</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2830513.84933</v>
+        <v>2833791.98197</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2891200.16542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3142730.65151</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3093568.655</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>680685.73232</v>
+        <v>837015.56005</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>727490.1764599999</v>
+        <v>891009.96406</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>835706.14177</v>
+        <v>1000367.0936</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1048663.41414</v>
+        <v>1353558.26058</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1117213.56019</v>
+        <v>1360249.23648</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1445796.0232</v>
+        <v>1730144.53682</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2028815.20091</v>
+        <v>2417906.10575</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2188778.08584</v>
+        <v>2621552.93664</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2900240.10129</v>
+        <v>3479593.82088</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2948088.14999</v>
+        <v>3576800.86076</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4380029.28525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5361387.907040001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4278951.838</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>432172.01477</v>
+        <v>846826.86318</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>375232.60943</v>
+        <v>571975.9773799999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>492007.27838</v>
+        <v>1075457.34668</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>400460.22132</v>
+        <v>966960.0628900001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>889539.2261800001</v>
+        <v>968396.98011</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>757701.6545299999</v>
+        <v>2870844.54719</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1071815.42091</v>
+        <v>2602650.07661</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1284543.44936</v>
+        <v>2386390.40753</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1219231.11037</v>
+        <v>2623655.80342</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4053290.142959999</v>
+        <v>10908644.03744</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2879974.59979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6063803.009160001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6710103.727</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>39351.67717</v>
+        <v>48154.4205</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>26728.83589</v>
+        <v>43798.80817</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>41893.49824</v>
+        <v>74773.68068</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>40946.50933</v>
+        <v>78855.66897</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>112336.47983</v>
+        <v>43621.45846</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>61841.79947999999</v>
+        <v>172076.64267</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>72631.05747</v>
+        <v>81715.60834000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>142286.82069</v>
+        <v>102630.00772</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>164098.81023</v>
+        <v>82434.35729</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>173084.95515</v>
+        <v>410453.88766</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>318805.55659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>404263.91531</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>350347.868</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>39160.92313</v>
+        <v>272403.10382</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>26123.89339</v>
+        <v>34473.2736</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>9021.768259999999</v>
+        <v>51368.10094</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>17013.76528</v>
+        <v>122564.09233</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>99119.93676000001</v>
+        <v>37649.9998</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>68815.34114</v>
+        <v>713010.64798</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>38641.08300999999</v>
+        <v>207724.73419</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>95515.59368000001</v>
+        <v>102632.10661</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>48981.39875</v>
+        <v>201278.89994</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>173515.937</v>
+        <v>483678.61023</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>203485.40209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>119058.94758</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>136133.145</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>85129.61017</v>
+        <v>86421.38983000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>75483.31649</v>
+        <v>84565.47230000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>96091.78023999999</v>
+        <v>129932.66061</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>113209.12786</v>
+        <v>144472.95708</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>107690.85646</v>
+        <v>125054.2306</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>159574.08435</v>
+        <v>235785.93717</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>199694.36748</v>
+        <v>293437.20844</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>200639.98399</v>
+        <v>376918.50755</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>258407.72173</v>
+        <v>454865.33625</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>586941.98757</v>
+        <v>947272.20735</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>570038.11236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1075659.31995</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>762033.276</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2138.39567</v>
+        <v>1954.91127</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2338.72951</v>
+        <v>160.56825</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1572.22647</v>
+        <v>286.14022</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>618.72622</v>
+        <v>1732.73809</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2069.423</v>
+        <v>1442.40428</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1322.04169</v>
+        <v>1487.22017</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3656.58218</v>
+        <v>7559.71283</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4483.02938</v>
+        <v>7063.63583</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3504.54379</v>
+        <v>3875.25751</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>11688.85096</v>
+        <v>23235.16163</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1269.65436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7314.51525</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>17498.664</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4608.76253</v>
+        <v>2085.25484</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>10648.7746</v>
+        <v>2154.79374</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>34237.67904</v>
+        <v>1335.25109</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>13064.08661</v>
+        <v>5378.22203</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>6497.14688</v>
+        <v>3678.14971</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4372.41206</v>
+        <v>4806.485650000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7593.48965</v>
+        <v>6271.867490000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>8273.29603</v>
+        <v>10592.64599</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5957.11783</v>
+        <v>5294.89403</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>8603.26542</v>
+        <v>17210.9737</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>27835.66451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>17830.0554</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>11936.798</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>5009.1867</v>
+        <v>19848.97257</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2557.8789</v>
+        <v>5621.28971</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>16417.42827</v>
+        <v>23183.83601</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>8636.963659999999</v>
+        <v>24029.97875</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>18956.09496</v>
+        <v>14460.32763</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>24476.82772</v>
+        <v>19334.6789</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>21345.27358</v>
+        <v>24242.36955</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>19940.12299</v>
+        <v>7133.74028</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>9322.40784</v>
+        <v>68363.28170000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>45796.11141</v>
+        <v>26581.91198</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>47201.91669000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>496480.93636</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>78505.613</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>157115.07005</v>
+        <v>312055.65924</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>137868.28714</v>
+        <v>287702.0431</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>154467.66746</v>
+        <v>646799.3965999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>104652.06382</v>
+        <v>457152.62001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>355489.60438</v>
+        <v>563909.60563</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>242847.74752</v>
+        <v>1276929.81895</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>468354.3287899999</v>
+        <v>1688476.88577</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>438359.35864</v>
+        <v>1311644.08438</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>411546.21036</v>
+        <v>1481877.16945</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2551098.28927</v>
+        <v>8106491.70851</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1096455.2042</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3033025.0366</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4371990.781</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>9627.83627</v>
+        <v>11479.72582</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1836.15757</v>
+        <v>4613.40147</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>2029.89486</v>
+        <v>17210.57412</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>603.26388</v>
+        <v>6047.23638</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>2031.71362</v>
+        <v>2979.759</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1779.33029</v>
+        <v>3531.38056</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1780.09921</v>
+        <v>1188.32382</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1574.7039</v>
+        <v>9212.61616</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1565.61248</v>
+        <v>14292.96403</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>24986.82436</v>
+        <v>143089.00681</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>22750.70018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>37894.60219</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>81837.091</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>1119.07638</v>
+        <v>585.86222</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>494.60984</v>
+        <v>517.58375</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>1096.23636</v>
+        <v>1705.89025</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>357.96673</v>
+        <v>546.84046</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>4089.34712</v>
+        <v>2862.62994</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>212.24185</v>
+        <v>13.44343</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>319.15488</v>
+        <v>487.92345</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>545.56647</v>
+        <v>536.4138399999999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>564.9648100000001</v>
+        <v>65.96416000000001</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>868.6888399999999</v>
+        <v>347.79984</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1079.88478</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>88911.4767</v>
+        <v>91837.56306999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>91152.12609999999</v>
+        <v>108368.74329</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>135179.09918</v>
+        <v>128861.81616</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>101357.74793</v>
+        <v>126179.70879</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>181258.62317</v>
+        <v>172738.41506</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>192459.82843</v>
+        <v>443868.29171</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>257799.98466</v>
+        <v>291545.44273</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>372924.97359</v>
+        <v>458026.64917</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>315282.32255</v>
+        <v>311307.67906</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>476705.23298</v>
+        <v>750282.7697300001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>591052.50403</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>872275.6805199999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>899731.741</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>238207.07091</v>
+        <v>413415.45713</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>180223.7868</v>
+        <v>348101.27363</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>277682.18596</v>
+        <v>964313.18239</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>191571.18902</v>
+        <v>451356.35091</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>489538.26726</v>
+        <v>887211.4317899999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>377849.9856300001</v>
+        <v>1450382.08956</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>652150.2862999999</v>
+        <v>2230007.95941</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>768043.10702</v>
+        <v>1904406.62512</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>691057.5013699998</v>
+        <v>1898544.96534</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3898454.08135</v>
+        <v>9780123.03551</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1912162.01203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3898174.17869</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6874622.733</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3441.41545</v>
+        <v>1861.73815</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3713.47971</v>
+        <v>2097.33403</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2615.668</v>
+        <v>1549.27352</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2512.83951</v>
+        <v>3603.59944</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2789.22092</v>
+        <v>3665.687</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4258.491389999999</v>
+        <v>3161.64623</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4612.702719999999</v>
+        <v>4164.63053</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8495.89573</v>
+        <v>9860.221869999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>8772.21452</v>
+        <v>16558.84683</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>15389.31172</v>
+        <v>8291.59598</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>10911.03913</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>8972.973239999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>27714.084</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>23200.47783</v>
+        <v>30696.33755</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4688.21996</v>
+        <v>10575.69305</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>44789.2586</v>
+        <v>19726.17024</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>38947.88496</v>
+        <v>35434.40732</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>27180.60156</v>
+        <v>16762.05049</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>30421.66813</v>
+        <v>23177.77793</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>32841.71006</v>
+        <v>41636.20396</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>24467.40292</v>
+        <v>35307.55465</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>36306.73849</v>
+        <v>59504.69868</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>69164.73665000001</v>
+        <v>94568.61019000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>82267.00031999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>95960.88909</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>86603.087</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>2018.76341</v>
+        <v>6515.356360000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1069.64297</v>
+        <v>4734.46863</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>5673.921060000001</v>
+        <v>788.8014599999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1601.1203</v>
+        <v>2707.10601</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>5086.30562</v>
+        <v>3788.03756</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>4627.83392</v>
+        <v>2481.85326</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>6458.31402</v>
+        <v>36110.6169</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>3755.16187</v>
+        <v>3265.60332</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>777.21617</v>
+        <v>42182.02852</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>14724.08804</v>
+        <v>25745.15309</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>7171.09135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>7260.316610000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>44794.615</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>148246.02956</v>
+        <v>305256.28698</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>121738.72802</v>
+        <v>290776.17068</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>185203.20802</v>
+        <v>879992.5568</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>97067.71812000001</v>
+        <v>344683.50825</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>388605.46014</v>
+        <v>770621.3153499999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>260141.21796</v>
+        <v>1260238.97756</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>505596.07831</v>
+        <v>2022790.07354</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>549099.4371799999</v>
+        <v>1733219.65276</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>535420.9943</v>
+        <v>1611101.55112</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3455730.73436</v>
+        <v>9113122.641129998</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1417559.87549</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3309330.09132</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6007374.094</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>6763.05585</v>
+        <v>10634.41655</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1071.98641</v>
+        <v>5164.941599999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>325.20001</v>
+        <v>14971.42024</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>926.80863</v>
+        <v>8270.64918</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1399.58383</v>
+        <v>2307.30825</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2100.38237</v>
+        <v>22544.08688</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1938.02315</v>
+        <v>3400.10929</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1563.51332</v>
+        <v>10621.85836</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>3841.28239</v>
+        <v>14652.2594</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>31883.5265</v>
+        <v>152611.39467</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>20616.64431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>36754.01940999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>83901.443</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>1631.42919</v>
+        <v>1762.36827</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>925.77319</v>
+        <v>994.68192</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>400.96079</v>
+        <v>497.97203</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>74.09792</v>
+        <v>26.07279</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2052.39065</v>
+        <v>795.2616400000001</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>7.000000000000001e-05</v>
+        <v>714.34777</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>184.67749</v>
+        <v>184.67744</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>731.9947900000001</v>
+        <v>751.95865</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>5.37937</v>
+        <v>1.03404</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>889.63836</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>55.08002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.05787</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>52905.89962</v>
+        <v>56688.95327000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>47015.95654</v>
+        <v>33757.98372</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>38673.96948</v>
+        <v>46786.9881</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>50440.71958</v>
+        <v>56631.00792</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>62424.70454</v>
+        <v>89271.7715</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>76300.39179000001</v>
+        <v>138063.39993</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>100518.78055</v>
+        <v>121721.64775</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>179929.70121</v>
+        <v>111379.77551</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>105933.67613</v>
+        <v>154544.54675</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>310672.0457200001</v>
+        <v>384894.00209</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>373581.2814099999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>439895.83115</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>624235.41</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>240768.28071</v>
+        <v>294941.46088</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>207931.62836</v>
+        <v>237992.4801</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>268520.07701</v>
+        <v>384126.07965</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>339824.32852</v>
+        <v>509916.91875</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>473805.08516</v>
+        <v>594195.32066</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>595112.6156899999</v>
+        <v>989305.89217</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>870001.57398</v>
+        <v>1533235.20002</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1137809.26642</v>
+        <v>1984665.36485</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1475101.74479</v>
+        <v>2468162.34599</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2862530.28843</v>
+        <v>5321618.36847</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2592767.52263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4702724.33218</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5264386.658</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>222158.83494</v>
+        <v>265538.18689</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>186599.7926</v>
+        <v>205834.37438</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>246882.05168</v>
+        <v>351660.76579</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>313855.87666</v>
+        <v>421197.54548</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>433285.72824</v>
+        <v>513206.84983</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>539669.20117</v>
+        <v>933302.58415</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>782569.48839</v>
+        <v>1403872.61223</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1048488.58194</v>
+        <v>1790757.98893</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1354474.15792</v>
+        <v>2293630.18562</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2521022.75652</v>
+        <v>4589276.83254</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2368874.20588</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4253799.53719</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4830328.242</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>18609.44577</v>
+        <v>29403.27399</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>21331.83576</v>
+        <v>32158.10572</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>21638.02533</v>
+        <v>32465.31386</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>25968.45186</v>
+        <v>88719.37327</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>40519.35691999999</v>
+        <v>80988.47082999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>55443.41452000001</v>
+        <v>56003.30802</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>87432.08559</v>
+        <v>129362.58779</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>89320.68448</v>
+        <v>193907.37592</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>120627.58687</v>
+        <v>174532.16037</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>341507.53191</v>
+        <v>732341.5359299999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>223893.31675</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>448924.79499</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>434058.416</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>633882.3954699999</v>
+        <v>975485.5052200001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>714567.37073</v>
+        <v>876892.18771</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>781511.1571800001</v>
+        <v>727385.17824</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>917728.11792</v>
+        <v>1359245.05381</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1043409.43395</v>
+        <v>847239.4641399999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1230535.07641</v>
+        <v>2161301.10228</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1578478.76154</v>
+        <v>1257313.02293</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1567469.16176</v>
+        <v>1118871.3542</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1953311.9655</v>
+        <v>1736542.31297</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>240393.92317</v>
+        <v>-616296.50578</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2755074.35038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2824292.40533</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1149953.826</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>127650.49219</v>
+        <v>111820.02854</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>203668.32968</v>
+        <v>200132.28197</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>181982.64492</v>
+        <v>200342.96305</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>169616.83156</v>
+        <v>159352.4491</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>360109.85399</v>
+        <v>213249.05225</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>276079.61217</v>
+        <v>345244.39563</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>360695.74251</v>
+        <v>588540.2158699998</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>463676.9294199999</v>
+        <v>1056224.44511</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>466901.67424</v>
+        <v>612626.33345</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>920795.24936</v>
+        <v>931367.36288</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>939099.50639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>718472.58976</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>986199.034</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>11040.22852</v>
+        <v>19411.10581</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>29027.94435</v>
+        <v>34849.41318</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>25122.27932</v>
+        <v>31007.21006</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>26271.22377</v>
+        <v>24804.04391</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>101805.22921</v>
+        <v>40149.33809</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>21810.65337</v>
+        <v>35012.35196</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>24563.66189</v>
+        <v>19979.59671</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>35833.43101</v>
+        <v>26093.67002</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>24706.37972</v>
+        <v>54993.52006</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>93462.94009999999</v>
+        <v>68484.31659999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>59764.03993</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>101569.6184</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>78743.359</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>116610.26367</v>
+        <v>92408.92273000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>174640.38533</v>
+        <v>165282.86879</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>156860.3656</v>
+        <v>169335.75299</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>143345.60779</v>
+        <v>134548.40519</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>258304.62478</v>
+        <v>173099.71416</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>254268.9588</v>
+        <v>310232.04367</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>336132.08062</v>
+        <v>568560.61916</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>427843.4984099999</v>
+        <v>1030130.77509</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>442195.2945200001</v>
+        <v>557632.81339</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>827332.30926</v>
+        <v>862883.04628</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>879335.46646</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>616902.97136</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>907455.675</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>154950.67475</v>
+        <v>148271.64017</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>168679.23772</v>
+        <v>170820.45131</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>797536.3195</v>
+        <v>862841.4599299999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>241155.1733</v>
+        <v>200531.80857</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>366454.1931499999</v>
+        <v>243436.3399</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>509342.5842</v>
+        <v>499474.66793</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>412871.6919</v>
+        <v>453363.93694</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>856001.5330899999</v>
+        <v>892719.72214</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>722318.0261200001</v>
+        <v>880940.51844</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1380890.96621</v>
+        <v>1204776.71185</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1976255.60364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2080518.92194</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>816978.272</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3580.18895</v>
+        <v>2200.34561</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2977.98921</v>
+        <v>2097.39994</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>3483.44413</v>
+        <v>2749.47989</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1306.79159</v>
+        <v>2864.03123</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2504.60619</v>
+        <v>1592.46662</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3283.51927</v>
+        <v>9426.495650000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9111.1772</v>
+        <v>11386.0354</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>13667.27454</v>
+        <v>27752.34857</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5322.74555</v>
+        <v>19444.66107</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>15182.44592</v>
+        <v>16773.54276</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>16787.37401</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>13316.26481</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>23397.553</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>39962.71979</v>
+        <v>45593.32426</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>32776.74291</v>
+        <v>42879.15464</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>33946.29655000001</v>
+        <v>47763.66838</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>35570.05919000001</v>
+        <v>38571.38290999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>110175.80048</v>
+        <v>55638.68148</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>41606.84813000001</v>
+        <v>63670.52954</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>53618.19111</v>
+        <v>61980.71315</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>70369.0438</v>
+        <v>64915.77951</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>65332.78633</v>
+        <v>88553.81525</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>162956.50686</v>
+        <v>149705.23957</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>126478.20067</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>182529.38043</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>172895.712</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>111407.76601</v>
+        <v>100477.9703</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>132924.5056</v>
+        <v>125843.89673</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>760106.5788200001</v>
+        <v>812328.31166</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>204278.32252</v>
+        <v>159096.39443</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>253773.78648</v>
+        <v>186205.1918</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>464452.2168</v>
+        <v>426377.64274</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>350142.32359</v>
+        <v>379997.18839</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>771965.21475</v>
+        <v>800051.59406</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>651662.49424</v>
+        <v>772942.04212</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1202752.01343</v>
+        <v>1038297.92952</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1832990.02896</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1884673.2767</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>620685.007</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>606582.21291</v>
+        <v>939033.89359</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>749556.46269</v>
+        <v>906204.0183699999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>165957.4826</v>
+        <v>64886.68136</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>846189.7761799999</v>
+        <v>1318065.69434</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1037065.09479</v>
+        <v>817052.17649</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>997272.10438</v>
+        <v>2007070.82998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1526302.81215</v>
+        <v>1392489.30186</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1175144.55809</v>
+        <v>1282376.07717</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1697895.61362</v>
+        <v>1468228.12798</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-219701.79368</v>
+        <v>-889705.8547500001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1717918.25313</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1462246.07315</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-980733.064</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>152673.28592</v>
+        <v>173181.67513</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>173097.70851</v>
+        <v>189511.70913</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>190820.31696</v>
+        <v>200924.08819</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>216832.052</v>
+        <v>240774.33171</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>253700.63059</v>
+        <v>246398.91014</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>292243.16903</v>
+        <v>330101.20181</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>357248.32929</v>
+        <v>404268.2265700001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>425654.35333</v>
+        <v>398981.2325399999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>445166.94129</v>
+        <v>442434.7542</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>531072.1870200001</v>
+        <v>585797.6620700001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>545825.4402300001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>598490.38124</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>635257.1679999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>453908.92699</v>
+        <v>765852.2184599999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>576458.7541799999</v>
+        <v>716692.30924</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-24862.83436</v>
+        <v>-136037.40683</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>629357.7241799999</v>
+        <v>1077291.36263</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>783364.4641999999</v>
+        <v>570653.26635</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>705028.9353499999</v>
+        <v>1676969.62817</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1169054.48286</v>
+        <v>988221.0752899999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>749490.20476</v>
+        <v>883394.8446299999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1252728.67233</v>
+        <v>1025793.37378</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-750773.9807000001</v>
+        <v>-1475503.51682</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1172092.8129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>863755.6919100001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1615990.232</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3138</v>
+        <v>1552</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3651</v>
+        <v>1767</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4335</v>
+        <v>2219</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5188</v>
+        <v>2692</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4489</v>
+        <v>2641</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5300</v>
+        <v>3122</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6123</v>
+        <v>3619</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7343</v>
+        <v>3865</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>8534</v>
+        <v>4284</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4742</v>
+        <v>3236</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3966</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2296</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>